--- a/data/league_data/spain/20/spain_misc.xlsx
+++ b/data/league_data/spain/20/spain_misc.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E09FDE9-7DED-FF4E-AE4B-C1FEF5BD692D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EBAB6D-B574-294C-B13B-FEF4A04FFA6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="588">
   <si>
     <t>Rk</t>
   </si>
@@ -1778,12 +1778,18 @@
   </si>
   <si>
     <t>Manuel Garrido</t>
+  </si>
+  <si>
+    <t>Nacho Iglesias</t>
+  </si>
+  <si>
+    <t>Raúl García Escudero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2641,14 +2647,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
@@ -2676,7 +2682,7 @@
     <col min="24" max="24" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2750,7 +2756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2822,7 +2828,7 @@
       </c>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2894,7 +2900,7 @@
       </c>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2968,7 +2974,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3042,7 +3048,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3116,7 +3122,7 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3190,7 +3196,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3262,7 +3268,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3334,7 +3340,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3406,7 +3412,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3478,7 +3484,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3552,7 +3558,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3626,7 +3632,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3700,7 +3706,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3772,7 +3778,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3844,7 +3850,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3916,7 +3922,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3990,7 +3996,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4064,7 +4070,7 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4138,7 +4144,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4212,7 +4218,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4286,7 +4292,7 @@
         <v>76.2</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4360,7 +4366,7 @@
         <v>63.9</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4434,7 +4440,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4508,7 +4514,7 @@
         <v>46.3</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4582,7 +4588,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4654,7 +4660,7 @@
       </c>
       <c r="X27" s="2"/>
     </row>
-    <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4728,7 +4734,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4802,7 +4808,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4876,7 +4882,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4950,7 +4956,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5024,7 +5030,7 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5098,7 +5104,7 @@
         <v>46.9</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5172,7 +5178,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5246,7 +5252,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5318,7 +5324,7 @@
       </c>
       <c r="X36" s="2"/>
     </row>
-    <row r="37" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5392,7 +5398,7 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5466,7 +5472,7 @@
         <v>63.9</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5540,7 +5546,7 @@
         <v>47.4</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5612,7 +5618,7 @@
       </c>
       <c r="X40" s="2"/>
     </row>
-    <row r="41" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5686,7 +5692,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5760,7 +5766,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5832,7 +5838,7 @@
       </c>
       <c r="X43" s="2"/>
     </row>
-    <row r="44" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -5906,7 +5912,7 @@
         <v>47.9</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -5980,7 +5986,7 @@
         <v>44.6</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6054,7 +6060,7 @@
         <v>71.7</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6126,7 +6132,7 @@
       </c>
       <c r="X47" s="2"/>
     </row>
-    <row r="48" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6200,7 +6206,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6274,7 +6280,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6348,12 +6354,12 @@
         <v>69.400000000000006</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>114</v>
+        <v>587</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>25</v>
@@ -6422,7 +6428,7 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6496,7 +6502,7 @@
         <v>66.2</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -6570,7 +6576,7 @@
         <v>63.7</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -6644,7 +6650,7 @@
         <v>71.8</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -6718,7 +6724,7 @@
         <v>59.1</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -6792,7 +6798,7 @@
         <v>70.599999999999994</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -6866,7 +6872,7 @@
         <v>72.2</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -6940,7 +6946,7 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -7014,7 +7020,7 @@
         <v>45.6</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -7088,7 +7094,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -7162,7 +7168,7 @@
         <v>46.7</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -7236,7 +7242,7 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -7310,7 +7316,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -7384,7 +7390,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -7458,7 +7464,7 @@
         <v>45.8</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -7532,7 +7538,7 @@
         <v>59.7</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -7606,7 +7612,7 @@
         <v>67.599999999999994</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -7680,7 +7686,7 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -7754,7 +7760,7 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -7828,7 +7834,7 @@
         <v>56.7</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -7902,7 +7908,7 @@
         <v>54.2</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -7976,7 +7982,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -8050,7 +8056,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -8124,7 +8130,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -8198,7 +8204,7 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -8272,7 +8278,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -8346,7 +8352,7 @@
         <v>56.9</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -8420,7 +8426,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="79" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -8494,7 +8500,7 @@
         <v>46.3</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -8568,7 +8574,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -8642,7 +8648,7 @@
         <v>70.7</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -8716,7 +8722,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -8790,7 +8796,7 @@
         <v>57.4</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -8864,7 +8870,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -8938,7 +8944,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -9012,7 +9018,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -9086,7 +9092,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -9160,7 +9166,7 @@
         <v>65.599999999999994</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -9234,7 +9240,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -9308,7 +9314,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -9382,7 +9388,7 @@
         <v>66.099999999999994</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -9456,7 +9462,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -9530,7 +9536,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -9604,7 +9610,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -9678,7 +9684,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -9752,7 +9758,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -9826,7 +9832,7 @@
         <v>49.1</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -9900,7 +9906,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -9974,7 +9980,7 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -10048,7 +10054,7 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -10122,7 +10128,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -10194,7 +10200,7 @@
       </c>
       <c r="X102" s="2"/>
     </row>
-    <row r="103" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -10268,7 +10274,7 @@
         <v>45.8</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -10342,7 +10348,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -10416,7 +10422,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -10490,7 +10496,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -10564,7 +10570,7 @@
         <v>46.6</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -10638,7 +10644,7 @@
         <v>65.599999999999994</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -10712,7 +10718,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -10786,7 +10792,7 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -10860,7 +10866,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -10934,7 +10940,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -11008,7 +11014,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -11082,7 +11088,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -11154,7 +11160,7 @@
       </c>
       <c r="X115" s="2"/>
     </row>
-    <row r="116" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -11228,7 +11234,7 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -11302,7 +11308,7 @@
         <v>47.8</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -11376,7 +11382,7 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="119" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -11450,7 +11456,7 @@
         <v>57.3</v>
       </c>
     </row>
-    <row r="120" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -11524,7 +11530,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="121" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -11598,7 +11604,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="122" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -11672,7 +11678,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="123" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -11746,7 +11752,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="124" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -11820,7 +11826,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="125" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -11894,7 +11900,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="126" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -11968,7 +11974,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="127" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -12042,7 +12048,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="128" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -12116,7 +12122,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="129" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -12190,7 +12196,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="130" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -12264,7 +12270,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="131" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -12338,7 +12344,7 @@
         <v>54.4</v>
       </c>
     </row>
-    <row r="132" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -12410,7 +12416,7 @@
       </c>
       <c r="X132" s="2"/>
     </row>
-    <row r="133" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -12484,7 +12490,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="134" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -12558,7 +12564,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="135" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -12632,7 +12638,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="136" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -12706,7 +12712,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -12780,7 +12786,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="138" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -12854,7 +12860,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="139" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -12928,7 +12934,7 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="140" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -13002,7 +13008,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -13076,7 +13082,7 @@
         <v>46.7</v>
       </c>
     </row>
-    <row r="142" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -13150,7 +13156,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="143" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -13224,7 +13230,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="144" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -13298,7 +13304,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="145" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -13372,7 +13378,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="146" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -13446,7 +13452,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="147" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -13520,7 +13526,7 @@
         <v>70.400000000000006</v>
       </c>
     </row>
-    <row r="148" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -13594,7 +13600,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="149" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -13668,7 +13674,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="150" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -13742,7 +13748,7 @@
         <v>54.4</v>
       </c>
     </row>
-    <row r="151" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -13816,7 +13822,7 @@
         <v>71.3</v>
       </c>
     </row>
-    <row r="152" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -13890,7 +13896,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="153" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -13962,7 +13968,7 @@
       </c>
       <c r="X153" s="2"/>
     </row>
-    <row r="154" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -14036,7 +14042,7 @@
         <v>53.7</v>
       </c>
     </row>
-    <row r="155" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -14110,7 +14116,7 @@
         <v>60.9</v>
       </c>
     </row>
-    <row r="156" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -14184,7 +14190,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="157" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -14258,7 +14264,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="158" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -14332,7 +14338,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="159" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -14406,7 +14412,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="160" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -14480,7 +14486,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="161" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -14554,7 +14560,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="162" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -14628,7 +14634,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="163" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -14702,7 +14708,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="164" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -14776,7 +14782,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="165" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -14850,7 +14856,7 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="166" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -14924,7 +14930,7 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="167" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -14998,7 +15004,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="168" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -15072,7 +15078,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="169" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -15146,7 +15152,7 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="170" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -15220,7 +15226,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="171" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -15294,7 +15300,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="172" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -15368,7 +15374,7 @@
         <v>70.599999999999994</v>
       </c>
     </row>
-    <row r="173" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -15442,7 +15448,7 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="174" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -15516,7 +15522,7 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="175" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -15590,7 +15596,7 @@
         <v>66.099999999999994</v>
       </c>
     </row>
-    <row r="176" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -15664,7 +15670,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="177" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -15738,7 +15744,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="178" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -15812,7 +15818,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="179" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -15886,7 +15892,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -15960,7 +15966,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="181" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -16034,7 +16040,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="182" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -16108,7 +16114,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="183" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -16182,7 +16188,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="184" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -16256,7 +16262,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="185" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -16330,7 +16336,7 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="186" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -16404,7 +16410,7 @@
         <v>67.7</v>
       </c>
     </row>
-    <row r="187" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -16478,7 +16484,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="188" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -16552,7 +16558,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="189" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -16626,7 +16632,7 @@
         <v>45.2</v>
       </c>
     </row>
-    <row r="190" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -16700,7 +16706,7 @@
         <v>56.1</v>
       </c>
     </row>
-    <row r="191" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -16774,7 +16780,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="192" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -16848,7 +16854,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="193" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -16922,7 +16928,7 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="194" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -16996,7 +17002,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="195" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -17070,7 +17076,7 @@
         <v>69.900000000000006</v>
       </c>
     </row>
-    <row r="196" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -17144,7 +17150,7 @@
         <v>48.7</v>
       </c>
     </row>
-    <row r="197" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -17218,7 +17224,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="198" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -17292,7 +17298,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="199" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -17366,7 +17372,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="200" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -17440,7 +17446,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="201" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -17514,7 +17520,7 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="202" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -17588,7 +17594,7 @@
         <v>48.7</v>
       </c>
     </row>
-    <row r="203" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -17662,7 +17668,7 @@
         <v>50.6</v>
       </c>
     </row>
-    <row r="204" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -17736,7 +17742,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="205" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -17810,7 +17816,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="206" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -17884,7 +17890,7 @@
         <v>63.1</v>
       </c>
     </row>
-    <row r="207" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -17958,7 +17964,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="208" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -18032,7 +18038,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="209" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -18106,7 +18112,7 @@
         <v>76.400000000000006</v>
       </c>
     </row>
-    <row r="210" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -18180,7 +18186,7 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="211" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -18254,7 +18260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -18328,7 +18334,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="213" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -18402,7 +18408,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="214" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -18476,7 +18482,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="215" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -18550,7 +18556,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="216" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -18624,7 +18630,7 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="217" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -18698,7 +18704,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="218" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -18770,7 +18776,7 @@
       </c>
       <c r="X218" s="2"/>
     </row>
-    <row r="219" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -18844,7 +18850,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="220" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -18918,7 +18924,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="221" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -18992,7 +18998,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="222" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -19066,7 +19072,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="223" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -19140,7 +19146,7 @@
         <v>52.9</v>
       </c>
     </row>
-    <row r="224" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -19214,7 +19220,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="225" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -19288,7 +19294,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="226" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -19362,7 +19368,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="227" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -19434,7 +19440,7 @@
       </c>
       <c r="X227" s="2"/>
     </row>
-    <row r="228" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -19508,7 +19514,7 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="229" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -19582,7 +19588,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="230" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -19656,7 +19662,7 @@
         <v>45.8</v>
       </c>
     </row>
-    <row r="231" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -19730,7 +19736,7 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="232" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -19804,7 +19810,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="233" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -19878,7 +19884,7 @@
         <v>63.7</v>
       </c>
     </row>
-    <row r="234" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -19952,7 +19958,7 @@
         <v>69.7</v>
       </c>
     </row>
-    <row r="235" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -20026,7 +20032,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="236" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -20100,7 +20106,7 @@
         <v>70.599999999999994</v>
       </c>
     </row>
-    <row r="237" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -20174,7 +20180,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="238" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -20248,7 +20254,7 @@
         <v>57.4</v>
       </c>
     </row>
-    <row r="239" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -20322,7 +20328,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="240" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -20396,7 +20402,7 @@
         <v>45.3</v>
       </c>
     </row>
-    <row r="241" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -20470,7 +20476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="242" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -20544,7 +20550,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="243" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -20618,7 +20624,7 @@
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="244" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -20692,7 +20698,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="245" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -20766,7 +20772,7 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="246" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -20840,7 +20846,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="247" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -20914,7 +20920,7 @@
         <v>48.6</v>
       </c>
     </row>
-    <row r="248" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -20988,7 +20994,7 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="249" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -21062,7 +21068,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="250" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -21136,7 +21142,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="251" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -21210,7 +21216,7 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="252" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -21284,7 +21290,7 @@
         <v>65.099999999999994</v>
       </c>
     </row>
-    <row r="253" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -21358,7 +21364,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="254" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -21432,7 +21438,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="255" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -21506,7 +21512,7 @@
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="256" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -21580,7 +21586,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="257" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -21654,7 +21660,7 @@
         <v>64.599999999999994</v>
       </c>
     </row>
-    <row r="258" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -21728,7 +21734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="259" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -21802,7 +21808,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="260" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -21876,7 +21882,7 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="261" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -21950,7 +21956,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="262" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -22024,7 +22030,7 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="263" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -22098,7 +22104,7 @@
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="264" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -22172,7 +22178,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="265" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -22246,7 +22252,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="266" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -22320,7 +22326,7 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="267" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -22394,7 +22400,7 @@
         <v>56.9</v>
       </c>
     </row>
-    <row r="268" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -22466,7 +22472,7 @@
       </c>
       <c r="X268" s="2"/>
     </row>
-    <row r="269" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -22540,7 +22546,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="270" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -22614,7 +22620,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="271" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -22688,7 +22694,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="272" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -22762,7 +22768,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="273" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -22836,7 +22842,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="274" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -22910,7 +22916,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="275" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -22984,7 +22990,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="276" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -23058,7 +23064,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="277" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -23132,7 +23138,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="278" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -23206,7 +23212,7 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="279" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -23280,7 +23286,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="280" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -23354,7 +23360,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="281" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -23428,7 +23434,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="282" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -23502,7 +23508,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="283" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -23576,7 +23582,7 @@
         <v>59.3</v>
       </c>
     </row>
-    <row r="284" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -23650,7 +23656,7 @@
         <v>48.8</v>
       </c>
     </row>
-    <row r="285" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -23724,7 +23730,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="286" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -23798,7 +23804,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="287" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -23872,7 +23878,7 @@
         <v>61.1</v>
       </c>
     </row>
-    <row r="288" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -23946,7 +23952,7 @@
         <v>67.900000000000006</v>
       </c>
     </row>
-    <row r="289" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -24020,7 +24026,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="290" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -24094,7 +24100,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="291" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -24168,7 +24174,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="292" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -24242,7 +24248,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="293" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -24314,7 +24320,7 @@
       </c>
       <c r="X293" s="2"/>
     </row>
-    <row r="294" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -24388,7 +24394,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="295" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -24462,7 +24468,7 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="296" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -24536,7 +24542,7 @@
         <v>41.4</v>
       </c>
     </row>
-    <row r="297" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -24610,7 +24616,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="298" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -24684,7 +24690,7 @@
         <v>67.599999999999994</v>
       </c>
     </row>
-    <row r="299" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -24758,7 +24764,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="300" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -24832,7 +24838,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="301" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -24906,7 +24912,7 @@
         <v>49.2</v>
       </c>
     </row>
-    <row r="302" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -24980,7 +24986,7 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="303" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -25054,7 +25060,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="304" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -25128,7 +25134,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="305" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -25202,7 +25208,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="306" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -25276,7 +25282,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="307" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -25350,7 +25356,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="308" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -25424,7 +25430,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="309" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -25498,7 +25504,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="310" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -25572,7 +25578,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="311" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -25646,7 +25652,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="312" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -25720,7 +25726,7 @@
         <v>79.599999999999994</v>
       </c>
     </row>
-    <row r="313" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -25794,7 +25800,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="314" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -25868,7 +25874,7 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="315" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -25942,7 +25948,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="316" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -26016,7 +26022,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="317" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -26090,7 +26096,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="318" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -26164,7 +26170,7 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="319" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -26236,7 +26242,7 @@
       </c>
       <c r="X319" s="2"/>
     </row>
-    <row r="320" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -26310,7 +26316,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="321" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -26384,7 +26390,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="322" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -26458,7 +26464,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="323" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -26532,7 +26538,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="324" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -26606,7 +26612,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="325" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -26680,7 +26686,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="326" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -26754,7 +26760,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="327" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -26828,7 +26834,7 @@
         <v>61.3</v>
       </c>
     </row>
-    <row r="328" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -26902,7 +26908,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="329" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -26976,7 +26982,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="330" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -27050,7 +27056,7 @@
         <v>57.9</v>
       </c>
     </row>
-    <row r="331" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -27124,7 +27130,7 @@
         <v>52.9</v>
       </c>
     </row>
-    <row r="332" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -27198,7 +27204,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="333" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -27272,7 +27278,7 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="334" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -27346,7 +27352,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="335" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -27420,7 +27426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="336" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -27494,7 +27500,7 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="337" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -27568,7 +27574,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="338" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -27642,7 +27648,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="339" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -27716,7 +27722,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="340" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -27790,7 +27796,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="341" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -27864,7 +27870,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="342" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -27938,7 +27944,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="343" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -28012,7 +28018,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="344" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -28086,7 +28092,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="345" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -28160,7 +28166,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="346" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -28234,7 +28240,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="347" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -28308,7 +28314,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="348" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -28382,7 +28388,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="349" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -28456,7 +28462,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="350" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -28530,7 +28536,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="351" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -28602,7 +28608,7 @@
       </c>
       <c r="X351" s="2"/>
     </row>
-    <row r="352" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -28676,7 +28682,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="353" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -28750,7 +28756,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="354" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -28824,7 +28830,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="355" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -28898,7 +28904,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="356" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -28972,7 +28978,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="357" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -29046,7 +29052,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="358" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -29120,7 +29126,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="359" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -29194,7 +29200,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="360" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -29268,7 +29274,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="361" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -29342,7 +29348,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="362" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -29416,7 +29422,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="363" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -29490,7 +29496,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="364" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -29564,7 +29570,7 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="365" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -29638,7 +29644,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="366" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -29712,7 +29718,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="367" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -29786,7 +29792,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="368" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -29860,7 +29866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="369" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -29934,7 +29940,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="370" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -30008,7 +30014,7 @@
         <v>76.7</v>
       </c>
     </row>
-    <row r="371" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -30082,7 +30088,7 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="372" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -30156,7 +30162,7 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="373" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -30230,7 +30236,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="374" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -30304,7 +30310,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="375" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -30378,7 +30384,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="376" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -30452,7 +30458,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="377" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -30526,7 +30532,7 @@
         <v>47.4</v>
       </c>
     </row>
-    <row r="378" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -30600,7 +30606,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="379" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -30674,7 +30680,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="380" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -30748,7 +30754,7 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="381" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -30822,7 +30828,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="382" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -30896,7 +30902,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="383" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -30970,7 +30976,7 @@
         <v>84.6</v>
       </c>
     </row>
-    <row r="384" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -31044,7 +31050,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="385" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -31118,7 +31124,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="386" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -31192,7 +31198,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="387" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -31266,7 +31272,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="388" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -31340,7 +31346,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="389" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -31414,7 +31420,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="390" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -31486,7 +31492,7 @@
       </c>
       <c r="X390" s="2"/>
     </row>
-    <row r="391" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -31560,7 +31566,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="392" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -31634,7 +31640,7 @@
         <v>85.7</v>
       </c>
     </row>
-    <row r="393" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -31708,7 +31714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -31780,7 +31786,7 @@
       </c>
       <c r="X394" s="2"/>
     </row>
-    <row r="395" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -31854,7 +31860,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="396" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -31928,7 +31934,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="397" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -32002,7 +32008,7 @@
         <v>48.1</v>
       </c>
     </row>
-    <row r="398" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -32076,7 +32082,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="399" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -32150,7 +32156,7 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="400" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -32224,7 +32230,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="401" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -32298,7 +32304,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="402" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -32372,7 +32378,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="403" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -32446,7 +32452,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="404" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -32520,7 +32526,7 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="405" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -32594,7 +32600,7 @@
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="406" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -32668,7 +32674,7 @@
         <v>77.8</v>
       </c>
     </row>
-    <row r="407" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -32742,7 +32748,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="408" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -32816,7 +32822,7 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="409" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -32890,7 +32896,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="410" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -32964,12 +32970,12 @@
         <v>46.7</v>
       </c>
     </row>
-    <row r="411" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>277</v>
+        <v>586</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>25</v>
@@ -33038,7 +33044,7 @@
         <v>65.2</v>
       </c>
     </row>
-    <row r="412" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -33112,7 +33118,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="413" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -33186,7 +33192,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="414" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -33258,7 +33264,7 @@
       </c>
       <c r="X414" s="2"/>
     </row>
-    <row r="415" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -33332,7 +33338,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="416" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -33406,7 +33412,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="417" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -33480,7 +33486,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="418" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -33554,7 +33560,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="419" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -33628,7 +33634,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="420" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -33702,7 +33708,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="421" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -33776,7 +33782,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="422" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -33850,7 +33856,7 @@
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="423" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -33924,7 +33930,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="424" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -33998,7 +34004,7 @@
         <v>47.4</v>
       </c>
     </row>
-    <row r="425" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -34072,7 +34078,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="426" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -34144,7 +34150,7 @@
       </c>
       <c r="X426" s="2"/>
     </row>
-    <row r="427" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -34218,7 +34224,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="428" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -34292,7 +34298,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="429" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -34364,7 +34370,7 @@
       </c>
       <c r="X429" s="2"/>
     </row>
-    <row r="430" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -34438,7 +34444,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="431" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -34512,7 +34518,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="432" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -34586,7 +34592,7 @@
         <v>84.2</v>
       </c>
     </row>
-    <row r="433" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -34660,7 +34666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="434" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -34734,7 +34740,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="435" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -34808,7 +34814,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="436" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -34882,7 +34888,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="437" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -34956,7 +34962,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="438" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -35030,7 +35036,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="439" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -35104,7 +35110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -35178,7 +35184,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="441" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -35252,7 +35258,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="442" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -35326,7 +35332,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="443" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -35400,7 +35406,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="444" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -35474,7 +35480,7 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="445" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -35548,7 +35554,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="446" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -35620,7 +35626,7 @@
       </c>
       <c r="X446" s="2"/>
     </row>
-    <row r="447" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -35694,7 +35700,7 @@
         <v>85.7</v>
       </c>
     </row>
-    <row r="448" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -35766,7 +35772,7 @@
       </c>
       <c r="X448" s="2"/>
     </row>
-    <row r="449" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -35838,7 +35844,7 @@
       </c>
       <c r="X449" s="2"/>
     </row>
-    <row r="450" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -35910,7 +35916,7 @@
       </c>
       <c r="X450" s="2"/>
     </row>
-    <row r="451" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -35982,7 +35988,7 @@
       </c>
       <c r="X451" s="2"/>
     </row>
-    <row r="452" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -36056,7 +36062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -36130,7 +36136,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="454" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -36204,7 +36210,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="455" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -36278,7 +36284,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="456" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -36352,7 +36358,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="457" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -36426,7 +36432,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="458" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -36498,7 +36504,7 @@
       </c>
       <c r="X458" s="2"/>
     </row>
-    <row r="459" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -36572,7 +36578,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="460" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -36646,7 +36652,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="461" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -36720,7 +36726,7 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="462" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -36794,7 +36800,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="463" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -36868,7 +36874,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="464" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -36942,7 +36948,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="465" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -37016,7 +37022,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="466" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -37090,7 +37096,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="467" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -37164,7 +37170,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="468" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -37238,7 +37244,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="469" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -37312,7 +37318,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="470" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -37386,7 +37392,7 @@
         <v>76.900000000000006</v>
       </c>
     </row>
-    <row r="471" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -37460,7 +37466,7 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="472" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -37534,7 +37540,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="473" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -37608,7 +37614,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="474" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -37682,7 +37688,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="475" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -37756,7 +37762,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="476" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -37830,7 +37836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -37904,7 +37910,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="478" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -37976,7 +37982,7 @@
       </c>
       <c r="X478" s="2"/>
     </row>
-    <row r="479" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -38050,7 +38056,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="480" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -38124,7 +38130,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="481" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -38198,7 +38204,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="482" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -38272,7 +38278,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="483" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -38344,7 +38350,7 @@
       </c>
       <c r="X483" s="2"/>
     </row>
-    <row r="484" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -38416,7 +38422,7 @@
       </c>
       <c r="X484" s="2"/>
     </row>
-    <row r="485" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -38488,7 +38494,7 @@
       </c>
       <c r="X485" s="2"/>
     </row>
-    <row r="486" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -38562,7 +38568,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="487" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -38634,7 +38640,7 @@
       </c>
       <c r="X487" s="2"/>
     </row>
-    <row r="488" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -38708,7 +38714,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="489" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -38782,7 +38788,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="490" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -38856,7 +38862,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="491" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -38930,7 +38936,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="492" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -39004,7 +39010,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="493" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -39078,7 +39084,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="494" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -39152,7 +39158,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="495" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -39226,7 +39232,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="496" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -39300,7 +39306,7 @@
         <v>46.7</v>
       </c>
     </row>
-    <row r="497" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -39374,7 +39380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -39446,7 +39452,7 @@
       </c>
       <c r="X498" s="2"/>
     </row>
-    <row r="499" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -39520,7 +39526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -39594,7 +39600,6 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="501" spans="1:24" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/league_data/spain/20/spain_misc.xlsx
+++ b/data/league_data/spain/20/spain_misc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EBAB6D-B574-294C-B13B-FEF4A04FFA6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216FE3C2-F8DA-FC43-A916-DEA65EB95D1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="589">
   <si>
     <t>Rk</t>
   </si>
@@ -1090,9 +1090,6 @@
     <t>Tomás Pina Isla</t>
   </si>
   <si>
-    <t>Naldo</t>
-  </si>
-  <si>
     <t>Jaume Doménech</t>
   </si>
   <si>
@@ -1784,6 +1781,12 @@
   </si>
   <si>
     <t>Raúl García Escudero</t>
+  </si>
+  <si>
+    <t>Sergio Álvarez Diaz</t>
+  </si>
+  <si>
+    <t>Naldo Gomes</t>
   </si>
 </sst>
 </file>
@@ -2650,8 +2653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="B267" sqref="B267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6359,7 +6362,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>25</v>
@@ -22331,7 +22334,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>356</v>
+        <v>588</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>73</v>
@@ -22405,7 +22408,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>25</v>
@@ -22477,7 +22480,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>25</v>
@@ -22551,7 +22554,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>73</v>
@@ -22625,7 +22628,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>25</v>
@@ -22699,7 +22702,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>25</v>
@@ -22773,7 +22776,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>73</v>
@@ -22847,7 +22850,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>105</v>
@@ -22921,7 +22924,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>112</v>
@@ -22995,7 +22998,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>63</v>
@@ -23069,7 +23072,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>25</v>
@@ -23143,7 +23146,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>25</v>
@@ -23217,7 +23220,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>341</v>
@@ -23291,7 +23294,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>25</v>
@@ -23365,13 +23368,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D281" s="3" t="s">
         <v>370</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D281" s="3" t="s">
-        <v>371</v>
       </c>
       <c r="E281" s="3" t="s">
         <v>124</v>
@@ -23439,7 +23442,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>25</v>
@@ -23513,7 +23516,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>112</v>
@@ -23587,7 +23590,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>58</v>
@@ -23661,7 +23664,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>25</v>
@@ -23735,7 +23738,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>25</v>
@@ -23809,7 +23812,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>112</v>
@@ -23883,7 +23886,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>25</v>
@@ -23957,7 +23960,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>25</v>
@@ -24031,7 +24034,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>25</v>
@@ -24105,7 +24108,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>73</v>
@@ -24179,7 +24182,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>73</v>
@@ -24253,7 +24256,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>25</v>
@@ -24325,7 +24328,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>81</v>
@@ -24399,7 +24402,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>25</v>
@@ -24473,7 +24476,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>386</v>
+        <v>587</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>25</v>
@@ -24547,7 +24550,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>108</v>
@@ -24621,7 +24624,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>112</v>
@@ -24695,7 +24698,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>66</v>
@@ -24769,7 +24772,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>25</v>
@@ -24843,7 +24846,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>112</v>
@@ -24917,10 +24920,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C302" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="C302" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="D302" s="3" t="s">
         <v>85</v>
@@ -24991,7 +24994,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>25</v>
@@ -25065,7 +25068,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>25</v>
@@ -25139,7 +25142,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>206</v>
@@ -25213,7 +25216,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>81</v>
@@ -25287,7 +25290,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>25</v>
@@ -25361,7 +25364,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>25</v>
@@ -25435,7 +25438,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>25</v>
@@ -25509,7 +25512,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>25</v>
@@ -25583,13 +25586,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D311" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="C311" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D311" s="3" t="s">
-        <v>403</v>
       </c>
       <c r="E311" s="3" t="s">
         <v>47</v>
@@ -25657,7 +25660,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>73</v>
@@ -25731,7 +25734,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>112</v>
@@ -25805,7 +25808,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>25</v>
@@ -25879,7 +25882,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>25</v>
@@ -25953,7 +25956,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>73</v>
@@ -26101,7 +26104,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>25</v>
@@ -26175,7 +26178,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>25</v>
@@ -26247,7 +26250,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>153</v>
@@ -26321,7 +26324,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>25</v>
@@ -26395,7 +26398,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>25</v>
@@ -26469,7 +26472,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>25</v>
@@ -26543,7 +26546,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>25</v>
@@ -26617,7 +26620,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>66</v>
@@ -26691,7 +26694,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>25</v>
@@ -26765,7 +26768,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>112</v>
@@ -26839,7 +26842,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>25</v>
@@ -26913,10 +26916,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C329" s="3" t="s">
         <v>420</v>
-      </c>
-      <c r="C329" s="3" t="s">
-        <v>421</v>
       </c>
       <c r="D329" s="3" t="s">
         <v>55</v>
@@ -26987,7 +26990,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>25</v>
@@ -27061,7 +27064,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>66</v>
@@ -27135,7 +27138,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>25</v>
@@ -27209,7 +27212,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>63</v>
@@ -27283,7 +27286,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>25</v>
@@ -27357,7 +27360,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>133</v>
@@ -27431,7 +27434,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>25</v>
@@ -27505,7 +27508,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>25</v>
@@ -27579,7 +27582,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>25</v>
@@ -27653,7 +27656,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>71</v>
@@ -27727,7 +27730,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>25</v>
@@ -27801,7 +27804,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>25</v>
@@ -27875,7 +27878,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>25</v>
@@ -27949,7 +27952,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>63</v>
@@ -28023,7 +28026,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>25</v>
@@ -28097,7 +28100,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>25</v>
@@ -28171,7 +28174,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>71</v>
@@ -28245,7 +28248,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>58</v>
@@ -28319,7 +28322,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>25</v>
@@ -28393,7 +28396,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>25</v>
@@ -28541,7 +28544,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>25</v>
@@ -28613,7 +28616,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>58</v>
@@ -28687,7 +28690,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>25</v>
@@ -28761,7 +28764,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>25</v>
@@ -28835,7 +28838,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>66</v>
@@ -28909,7 +28912,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>25</v>
@@ -28983,10 +28986,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C357" s="3" t="s">
         <v>448</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>449</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>32</v>
@@ -29057,10 +29060,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D358" s="3" t="s">
         <v>35</v>
@@ -29131,7 +29134,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>25</v>
@@ -29205,7 +29208,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>25</v>
@@ -29279,7 +29282,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>25</v>
@@ -29353,7 +29356,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>25</v>
@@ -29427,7 +29430,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>25</v>
@@ -29501,7 +29504,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>25</v>
@@ -29575,7 +29578,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>25</v>
@@ -29649,7 +29652,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>127</v>
@@ -29723,7 +29726,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>25</v>
@@ -29797,7 +29800,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>25</v>
@@ -29871,7 +29874,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>206</v>
@@ -29945,7 +29948,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>25</v>
@@ -30019,7 +30022,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>25</v>
@@ -30093,7 +30096,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>66</v>
@@ -30167,7 +30170,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>63</v>
@@ -30241,7 +30244,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>25</v>
@@ -30315,7 +30318,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>81</v>
@@ -30389,7 +30392,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>25</v>
@@ -30463,13 +30466,13 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E377" s="3" t="s">
         <v>88</v>
@@ -30537,7 +30540,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>208</v>
@@ -30611,7 +30614,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>73</v>
@@ -30685,7 +30688,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>243</v>
@@ -30759,7 +30762,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>112</v>
@@ -30833,7 +30836,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>25</v>
@@ -30907,7 +30910,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>25</v>
@@ -30981,7 +30984,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>25</v>
@@ -31055,7 +31058,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>71</v>
@@ -31129,7 +31132,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>25</v>
@@ -31203,7 +31206,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>25</v>
@@ -31277,13 +31280,13 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E388" s="3" t="s">
         <v>88</v>
@@ -31351,7 +31354,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>220</v>
@@ -31425,7 +31428,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>25</v>
@@ -31497,7 +31500,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>25</v>
@@ -31571,7 +31574,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>25</v>
@@ -31645,7 +31648,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>25</v>
@@ -31719,7 +31722,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>341</v>
@@ -31791,7 +31794,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>25</v>
@@ -31865,7 +31868,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>25</v>
@@ -31939,10 +31942,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C397" s="3" t="s">
         <v>489</v>
-      </c>
-      <c r="C397" s="3" t="s">
-        <v>490</v>
       </c>
       <c r="D397" s="3" t="s">
         <v>32</v>
@@ -32013,7 +32016,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>25</v>
@@ -32087,7 +32090,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>25</v>
@@ -32161,7 +32164,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>25</v>
@@ -32235,7 +32238,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>25</v>
@@ -32309,7 +32312,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>25</v>
@@ -32383,7 +32386,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>25</v>
@@ -32457,7 +32460,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>25</v>
@@ -32531,7 +32534,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>25</v>
@@ -32605,10 +32608,10 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D406" s="3" t="s">
         <v>32</v>
@@ -32679,7 +32682,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>112</v>
@@ -32753,7 +32756,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>108</v>
@@ -32827,10 +32830,10 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C409" s="3" t="s">
         <v>502</v>
-      </c>
-      <c r="C409" s="3" t="s">
-        <v>503</v>
       </c>
       <c r="D409" s="3" t="s">
         <v>55</v>
@@ -32901,7 +32904,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>25</v>
@@ -32975,7 +32978,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>25</v>
@@ -33049,7 +33052,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>58</v>
@@ -33123,7 +33126,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>63</v>
@@ -33197,7 +33200,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>25</v>
@@ -33269,7 +33272,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>206</v>
@@ -33343,7 +33346,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>25</v>
@@ -33491,7 +33494,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>25</v>
@@ -33565,7 +33568,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>341</v>
@@ -33639,7 +33642,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>25</v>
@@ -33713,7 +33716,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>25</v>
@@ -33787,7 +33790,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>25</v>
@@ -33861,7 +33864,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>25</v>
@@ -33935,13 +33938,13 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E424" s="3" t="s">
         <v>36</v>
@@ -34009,7 +34012,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>25</v>
@@ -34083,7 +34086,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>66</v>
@@ -34155,13 +34158,13 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E427" s="3" t="s">
         <v>64</v>
@@ -34229,7 +34232,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>66</v>
@@ -34303,7 +34306,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>25</v>
@@ -34375,10 +34378,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C430" s="3" t="s">
         <v>522</v>
-      </c>
-      <c r="C430" s="3" t="s">
-        <v>523</v>
       </c>
       <c r="D430" s="3" t="s">
         <v>85</v>
@@ -34449,7 +34452,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>25</v>
@@ -34523,7 +34526,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>127</v>
@@ -34597,7 +34600,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>108</v>
@@ -34671,7 +34674,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>25</v>
@@ -34745,7 +34748,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>25</v>
@@ -34819,7 +34822,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>25</v>
@@ -34893,7 +34896,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>25</v>
@@ -34967,7 +34970,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>228</v>
@@ -35041,7 +35044,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>25</v>
@@ -35115,7 +35118,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>25</v>
@@ -35189,7 +35192,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>25</v>
@@ -35263,7 +35266,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>25</v>
@@ -35337,7 +35340,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>25</v>
@@ -35411,7 +35414,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>25</v>
@@ -35485,7 +35488,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>25</v>
@@ -35559,7 +35562,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>25</v>
@@ -35631,7 +35634,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>71</v>
@@ -35705,7 +35708,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>66</v>
@@ -35777,7 +35780,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>25</v>
@@ -35849,7 +35852,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>25</v>
@@ -35921,7 +35924,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>25</v>
@@ -35993,7 +35996,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>63</v>
@@ -36067,7 +36070,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>25</v>
@@ -36141,7 +36144,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>25</v>
@@ -36215,7 +36218,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>25</v>
@@ -36289,7 +36292,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>25</v>
@@ -36363,7 +36366,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>25</v>
@@ -36437,7 +36440,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>25</v>
@@ -36583,7 +36586,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>25</v>
@@ -36657,7 +36660,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>25</v>
@@ -36731,7 +36734,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>71</v>
@@ -36805,13 +36808,13 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>193</v>
       </c>
       <c r="D463" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E463" s="3" t="s">
         <v>64</v>
@@ -36879,7 +36882,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>25</v>
@@ -36953,7 +36956,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>25</v>
@@ -37027,7 +37030,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>206</v>
@@ -37101,7 +37104,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>25</v>
@@ -37175,7 +37178,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>25</v>
@@ -37249,7 +37252,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>25</v>
@@ -37323,7 +37326,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>25</v>
@@ -37397,7 +37400,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>112</v>
@@ -37471,7 +37474,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>73</v>
@@ -37545,7 +37548,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>153</v>
@@ -37619,7 +37622,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>25</v>
@@ -37693,7 +37696,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>341</v>
@@ -37841,7 +37844,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>25</v>
@@ -37915,7 +37918,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>25</v>
@@ -37987,7 +37990,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>25</v>
@@ -38061,7 +38064,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>341</v>
@@ -38135,7 +38138,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>25</v>
@@ -38209,7 +38212,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>25</v>
@@ -38283,7 +38286,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>73</v>
@@ -38355,7 +38358,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>25</v>
@@ -38427,7 +38430,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>25</v>
@@ -38499,7 +38502,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>25</v>
@@ -38573,7 +38576,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>25</v>
@@ -38645,7 +38648,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>25</v>
@@ -38719,7 +38722,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>25</v>
@@ -38793,7 +38796,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>25</v>
@@ -38867,7 +38870,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>66</v>
@@ -38941,7 +38944,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>73</v>
@@ -39015,7 +39018,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>25</v>
@@ -39089,10 +39092,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C494" s="3" t="s">
         <v>578</v>
-      </c>
-      <c r="C494" s="3" t="s">
-        <v>579</v>
       </c>
       <c r="D494" s="3" t="s">
         <v>53</v>
@@ -39163,7 +39166,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>25</v>
@@ -39237,7 +39240,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>25</v>
@@ -39311,7 +39314,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>63</v>
@@ -39385,7 +39388,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>25</v>
@@ -39457,7 +39460,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>25</v>
@@ -39531,7 +39534,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>25</v>

--- a/data/league_data/spain/20/spain_misc.xlsx
+++ b/data/league_data/spain/20/spain_misc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216FE3C2-F8DA-FC43-A916-DEA65EB95D1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BA4173-B404-9B4B-821C-2824C51677D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,9 +370,6 @@
     <t>Yuri Berchiche</t>
   </si>
   <si>
-    <t>Emerson</t>
-  </si>
-  <si>
     <t>Raphaël Varane</t>
   </si>
   <si>
@@ -1787,6 +1784,9 @@
   </si>
   <si>
     <t>Naldo Gomes</t>
+  </si>
+  <si>
+    <t>Emerson Royal</t>
   </si>
 </sst>
 </file>
@@ -2653,8 +2653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="B267" sqref="B267"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6362,7 +6362,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>25</v>
@@ -6510,7 +6510,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>116</v>
+        <v>588</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>73</v>
@@ -6584,7 +6584,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>66</v>
@@ -6658,7 +6658,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>25</v>
@@ -6732,7 +6732,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>73</v>
@@ -6806,7 +6806,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>25</v>
@@ -6880,7 +6880,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>25</v>
@@ -6889,7 +6889,7 @@
         <v>35</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F58" s="3">
         <v>29</v>
@@ -6954,7 +6954,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>112</v>
@@ -6963,7 +6963,7 @@
         <v>32</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F59" s="3">
         <v>25</v>
@@ -7028,7 +7028,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>25</v>
@@ -7102,10 +7102,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>35</v>
@@ -7176,7 +7176,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>25</v>
@@ -7250,7 +7250,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>25</v>
@@ -7324,7 +7324,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>112</v>
@@ -7398,7 +7398,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>25</v>
@@ -7472,13 +7472,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>90</v>
@@ -7546,7 +7546,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>105</v>
@@ -7620,7 +7620,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>25</v>
@@ -7694,7 +7694,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>25</v>
@@ -7768,7 +7768,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>25</v>
@@ -7777,7 +7777,7 @@
         <v>32</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F70" s="3">
         <v>27</v>
@@ -7842,7 +7842,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>25</v>
@@ -7851,7 +7851,7 @@
         <v>32</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F71" s="3">
         <v>23</v>
@@ -7916,7 +7916,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>25</v>
@@ -7990,7 +7990,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>73</v>
@@ -8064,7 +8064,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>25</v>
@@ -8138,7 +8138,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>46</v>
@@ -8212,7 +8212,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>25</v>
@@ -8221,7 +8221,7 @@
         <v>32</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F76" s="3">
         <v>29</v>
@@ -8286,7 +8286,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>25</v>
@@ -8360,7 +8360,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>66</v>
@@ -8434,7 +8434,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>25</v>
@@ -8508,10 +8508,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>32</v>
@@ -8582,7 +8582,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>63</v>
@@ -8656,7 +8656,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>71</v>
@@ -8730,10 +8730,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>53</v>
@@ -8804,10 +8804,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>32</v>
@@ -8878,7 +8878,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>25</v>
@@ -8952,7 +8952,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>25</v>
@@ -9026,7 +9026,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>66</v>
@@ -9100,7 +9100,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>105</v>
@@ -9174,7 +9174,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>25</v>
@@ -9248,10 +9248,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>53</v>
@@ -9322,13 +9322,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>56</v>
@@ -9396,7 +9396,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>25</v>
@@ -9470,7 +9470,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>25</v>
@@ -9544,7 +9544,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>105</v>
@@ -9618,7 +9618,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>25</v>
@@ -9692,7 +9692,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>25</v>
@@ -9701,7 +9701,7 @@
         <v>35</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F96" s="3">
         <v>30</v>
@@ -9766,7 +9766,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>25</v>
@@ -9840,7 +9840,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>25</v>
@@ -9914,7 +9914,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>112</v>
@@ -9988,13 +9988,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>49</v>
@@ -10062,7 +10062,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>25</v>
@@ -10136,7 +10136,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>25</v>
@@ -10145,7 +10145,7 @@
         <v>26</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F102" s="3">
         <v>35</v>
@@ -10208,7 +10208,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>25</v>
@@ -10282,7 +10282,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>66</v>
@@ -10356,13 +10356,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>27</v>
@@ -10430,7 +10430,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>66</v>
@@ -10504,7 +10504,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>73</v>
@@ -10578,7 +10578,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>25</v>
@@ -10652,10 +10652,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>55</v>
@@ -10726,7 +10726,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>25</v>
@@ -10800,7 +10800,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>25</v>
@@ -10874,7 +10874,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>25</v>
@@ -10948,10 +10948,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>53</v>
@@ -11022,7 +11022,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>25</v>
@@ -11096,7 +11096,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>25</v>
@@ -11105,7 +11105,7 @@
         <v>26</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F115" s="3">
         <v>27</v>
@@ -11168,7 +11168,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>25</v>
@@ -11242,13 +11242,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>47</v>
@@ -11316,10 +11316,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>35</v>
@@ -11390,7 +11390,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>25</v>
@@ -11464,7 +11464,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>25</v>
@@ -11538,7 +11538,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>25</v>
@@ -11612,7 +11612,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>25</v>
@@ -11686,7 +11686,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>25</v>
@@ -11760,7 +11760,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>66</v>
@@ -11834,10 +11834,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>55</v>
@@ -11908,7 +11908,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>25</v>
@@ -11982,7 +11982,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>25</v>
@@ -12056,7 +12056,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>25</v>
@@ -12130,10 +12130,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>32</v>
@@ -12204,10 +12204,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>53</v>
@@ -12278,7 +12278,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>25</v>
@@ -12352,7 +12352,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>25</v>
@@ -12424,7 +12424,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>25</v>
@@ -12498,7 +12498,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>58</v>
@@ -12572,7 +12572,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>25</v>
@@ -12646,7 +12646,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>25</v>
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>25</v>
@@ -12794,7 +12794,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>25</v>
@@ -12803,7 +12803,7 @@
         <v>53</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F138" s="3">
         <v>30</v>
@@ -12868,7 +12868,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>25</v>
@@ -12942,7 +12942,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>25</v>
@@ -13016,10 +13016,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>55</v>
@@ -13090,7 +13090,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>25</v>
@@ -13164,7 +13164,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>25</v>
@@ -13173,7 +13173,7 @@
         <v>53</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F143" s="3">
         <v>29</v>
@@ -13238,7 +13238,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>71</v>
@@ -13312,7 +13312,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>25</v>
@@ -13386,10 +13386,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>85</v>
@@ -13460,7 +13460,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>73</v>
@@ -13469,7 +13469,7 @@
         <v>32</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F147" s="3">
         <v>25</v>
@@ -13534,10 +13534,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>53</v>
@@ -13608,10 +13608,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>53</v>
@@ -13682,7 +13682,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>73</v>
@@ -13756,7 +13756,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>73</v>
@@ -13830,7 +13830,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>25</v>
@@ -13839,7 +13839,7 @@
         <v>32</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F152" s="3">
         <v>23</v>
@@ -13904,10 +13904,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>26</v>
@@ -13976,7 +13976,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>25</v>
@@ -14050,7 +14050,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>63</v>
@@ -14124,7 +14124,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>63</v>
@@ -14198,7 +14198,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>25</v>
@@ -14272,7 +14272,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>112</v>
@@ -14346,7 +14346,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>25</v>
@@ -14420,10 +14420,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>35</v>
@@ -14494,10 +14494,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>55</v>
@@ -14568,7 +14568,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>108</v>
@@ -14642,7 +14642,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>25</v>
@@ -14716,7 +14716,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>25</v>
@@ -14725,7 +14725,7 @@
         <v>53</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F164" s="3">
         <v>30</v>
@@ -14790,7 +14790,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>25</v>
@@ -14864,7 +14864,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>73</v>
@@ -14938,16 +14938,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F167" s="3">
         <v>22</v>
@@ -15012,10 +15012,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>53</v>
@@ -15086,7 +15086,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>71</v>
@@ -15160,7 +15160,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>25</v>
@@ -15234,7 +15234,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>58</v>
@@ -15308,10 +15308,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>255</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>32</v>
@@ -15382,10 +15382,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C173" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>32</v>
@@ -15456,7 +15456,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>25</v>
@@ -15465,7 +15465,7 @@
         <v>53</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F174" s="3">
         <v>33</v>
@@ -15530,10 +15530,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>53</v>
@@ -15604,7 +15604,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>25</v>
@@ -15678,10 +15678,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>55</v>
@@ -15752,7 +15752,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>25</v>
@@ -15826,7 +15826,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>25</v>
@@ -15900,16 +15900,16 @@
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>85</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F180" s="3">
         <v>28</v>
@@ -15974,16 +15974,16 @@
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F181" s="3">
         <v>25</v>
@@ -16048,7 +16048,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>25</v>
@@ -16122,7 +16122,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>25</v>
@@ -16196,7 +16196,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>25</v>
@@ -16205,7 +16205,7 @@
         <v>55</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F184" s="3">
         <v>21</v>
@@ -16270,16 +16270,16 @@
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C185" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F185" s="3">
         <v>30</v>
@@ -16344,7 +16344,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>66</v>
@@ -16418,7 +16418,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>25</v>
@@ -16492,7 +16492,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>71</v>
@@ -16566,7 +16566,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>25</v>
@@ -16640,7 +16640,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>25</v>
@@ -16649,7 +16649,7 @@
         <v>32</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F190" s="3">
         <v>29</v>
@@ -16714,7 +16714,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>25</v>
@@ -16788,7 +16788,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>25</v>
@@ -16862,7 +16862,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>25</v>
@@ -16936,7 +16936,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>71</v>
@@ -17010,16 +17010,16 @@
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F195" s="3">
         <v>25</v>
@@ -17084,7 +17084,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>25</v>
@@ -17158,16 +17158,16 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F197" s="3">
         <v>30</v>
@@ -17232,7 +17232,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>25</v>
@@ -17306,7 +17306,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>25</v>
@@ -17380,7 +17380,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>25</v>
@@ -17454,7 +17454,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>105</v>
@@ -17528,7 +17528,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>112</v>
@@ -17602,10 +17602,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C203" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>53</v>
@@ -17676,7 +17676,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>66</v>
@@ -17750,7 +17750,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>25</v>
@@ -17824,7 +17824,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>25</v>
@@ -17898,7 +17898,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>25</v>
@@ -17972,7 +17972,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>25</v>
@@ -18046,7 +18046,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>71</v>
@@ -18120,7 +18120,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>25</v>
@@ -18194,7 +18194,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>63</v>
@@ -18268,10 +18268,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>85</v>
@@ -18342,7 +18342,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>25</v>
@@ -18416,7 +18416,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>25</v>
@@ -18490,7 +18490,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>112</v>
@@ -18564,10 +18564,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>53</v>
@@ -18638,7 +18638,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>25</v>
@@ -18712,7 +18712,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>25</v>
@@ -18784,7 +18784,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>25</v>
@@ -18793,7 +18793,7 @@
         <v>53</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F219" s="3">
         <v>25</v>
@@ -18858,7 +18858,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>25</v>
@@ -18932,13 +18932,13 @@
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>112</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E221" s="3" t="s">
         <v>59</v>
@@ -19006,7 +19006,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>112</v>
@@ -19080,10 +19080,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>53</v>
@@ -19154,7 +19154,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>25</v>
@@ -19228,7 +19228,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>25</v>
@@ -19302,7 +19302,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>66</v>
@@ -19376,7 +19376,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>25</v>
@@ -19448,7 +19448,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>25</v>
@@ -19522,7 +19522,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>25</v>
@@ -19596,7 +19596,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>25</v>
@@ -19605,7 +19605,7 @@
         <v>53</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F230" s="3">
         <v>28</v>
@@ -19670,10 +19670,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>53</v>
@@ -19744,7 +19744,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>25</v>
@@ -19818,7 +19818,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>71</v>
@@ -19892,7 +19892,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>71</v>
@@ -19966,10 +19966,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>32</v>
@@ -20040,7 +20040,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>25</v>
@@ -20114,10 +20114,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>53</v>
@@ -20188,7 +20188,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>66</v>
@@ -20262,10 +20262,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C239" s="3" t="s">
         <v>325</v>
-      </c>
-      <c r="C239" s="3" t="s">
-        <v>326</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>35</v>
@@ -20336,7 +20336,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>25</v>
@@ -20410,7 +20410,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>25</v>
@@ -20484,10 +20484,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>85</v>
@@ -20558,7 +20558,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>25</v>
@@ -20632,7 +20632,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>25</v>
@@ -20706,7 +20706,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>25</v>
@@ -20780,7 +20780,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>25</v>
@@ -20854,7 +20854,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>25</v>
@@ -20928,7 +20928,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>66</v>
@@ -21002,7 +21002,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>112</v>
@@ -21076,7 +21076,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>25</v>
@@ -21150,16 +21150,16 @@
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C251" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>339</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F251" s="3">
         <v>22</v>
@@ -21224,10 +21224,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C252" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>32</v>
@@ -21298,7 +21298,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>25</v>
@@ -21372,7 +21372,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>25</v>
@@ -21446,16 +21446,16 @@
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D255" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F255" s="3">
         <v>22</v>
@@ -21520,7 +21520,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>51</v>
@@ -21594,7 +21594,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>25</v>
@@ -21668,7 +21668,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>25</v>
@@ -21742,7 +21742,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>73</v>
@@ -21816,7 +21816,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>25</v>
@@ -21890,10 +21890,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D261" s="3" t="s">
         <v>53</v>
@@ -21964,7 +21964,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>25</v>
@@ -22038,7 +22038,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>25</v>
@@ -22112,7 +22112,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>25</v>
@@ -22186,7 +22186,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>25</v>
@@ -22260,7 +22260,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>25</v>
@@ -22269,7 +22269,7 @@
         <v>53</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F266" s="3">
         <v>31</v>
@@ -22334,7 +22334,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>73</v>
@@ -22408,7 +22408,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>25</v>
@@ -22480,7 +22480,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>25</v>
@@ -22554,7 +22554,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>73</v>
@@ -22628,7 +22628,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>25</v>
@@ -22702,7 +22702,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>25</v>
@@ -22711,7 +22711,7 @@
         <v>53</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F272" s="3">
         <v>25</v>
@@ -22776,7 +22776,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>73</v>
@@ -22850,7 +22850,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>105</v>
@@ -22859,7 +22859,7 @@
         <v>53</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F274" s="3">
         <v>29</v>
@@ -22924,7 +22924,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>112</v>
@@ -22998,7 +22998,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>63</v>
@@ -23072,7 +23072,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>25</v>
@@ -23146,7 +23146,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>25</v>
@@ -23220,10 +23220,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>35</v>
@@ -23294,7 +23294,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>25</v>
@@ -23368,16 +23368,16 @@
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D281" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C281" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D281" s="3" t="s">
-        <v>370</v>
-      </c>
       <c r="E281" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F281" s="3">
         <v>23</v>
@@ -23442,7 +23442,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>25</v>
@@ -23516,7 +23516,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>112</v>
@@ -23525,7 +23525,7 @@
         <v>35</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F283" s="3">
         <v>28</v>
@@ -23590,7 +23590,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>58</v>
@@ -23664,7 +23664,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>25</v>
@@ -23738,7 +23738,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>25</v>
@@ -23812,7 +23812,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>112</v>
@@ -23821,7 +23821,7 @@
         <v>32</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F287" s="3">
         <v>25</v>
@@ -23886,7 +23886,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>25</v>
@@ -23960,7 +23960,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>25</v>
@@ -24034,7 +24034,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>25</v>
@@ -24108,7 +24108,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>73</v>
@@ -24182,7 +24182,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>73</v>
@@ -24256,7 +24256,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>25</v>
@@ -24328,7 +24328,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>81</v>
@@ -24402,7 +24402,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>25</v>
@@ -24476,7 +24476,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>25</v>
@@ -24550,7 +24550,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>108</v>
@@ -24624,7 +24624,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>112</v>
@@ -24698,7 +24698,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>66</v>
@@ -24772,7 +24772,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>25</v>
@@ -24846,7 +24846,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>112</v>
@@ -24920,10 +24920,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C302" s="3" t="s">
         <v>391</v>
-      </c>
-      <c r="C302" s="3" t="s">
-        <v>392</v>
       </c>
       <c r="D302" s="3" t="s">
         <v>85</v>
@@ -24994,13 +24994,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E303" s="3" t="s">
         <v>49</v>
@@ -25068,7 +25068,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>25</v>
@@ -25077,7 +25077,7 @@
         <v>53</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F304" s="3">
         <v>26</v>
@@ -25142,10 +25142,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D305" s="3" t="s">
         <v>32</v>
@@ -25216,7 +25216,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>81</v>
@@ -25290,7 +25290,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>25</v>
@@ -25364,7 +25364,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>25</v>
@@ -25438,7 +25438,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>25</v>
@@ -25512,13 +25512,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E310" s="3" t="s">
         <v>61</v>
@@ -25586,13 +25586,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D311" s="3" t="s">
         <v>401</v>
-      </c>
-      <c r="C311" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D311" s="3" t="s">
-        <v>402</v>
       </c>
       <c r="E311" s="3" t="s">
         <v>47</v>
@@ -25660,7 +25660,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>73</v>
@@ -25734,7 +25734,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>112</v>
@@ -25808,7 +25808,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>25</v>
@@ -25882,7 +25882,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>25</v>
@@ -25956,7 +25956,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>73</v>
@@ -26036,7 +26036,7 @@
         <v>25</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E317" s="3" t="s">
         <v>61</v>
@@ -26104,7 +26104,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>25</v>
@@ -26178,7 +26178,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>25</v>
@@ -26187,7 +26187,7 @@
         <v>26</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F319" s="3">
         <v>21</v>
@@ -26250,10 +26250,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D320" s="3" t="s">
         <v>35</v>
@@ -26324,7 +26324,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>25</v>
@@ -26398,7 +26398,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>25</v>
@@ -26472,7 +26472,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>25</v>
@@ -26481,7 +26481,7 @@
         <v>32</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F323" s="3">
         <v>23</v>
@@ -26546,7 +26546,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>25</v>
@@ -26620,7 +26620,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>66</v>
@@ -26694,7 +26694,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>25</v>
@@ -26768,7 +26768,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>112</v>
@@ -26842,7 +26842,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>25</v>
@@ -26916,10 +26916,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C329" s="3" t="s">
         <v>419</v>
-      </c>
-      <c r="C329" s="3" t="s">
-        <v>420</v>
       </c>
       <c r="D329" s="3" t="s">
         <v>55</v>
@@ -26990,7 +26990,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>25</v>
@@ -27064,7 +27064,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>66</v>
@@ -27138,7 +27138,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>25</v>
@@ -27212,7 +27212,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>63</v>
@@ -27286,7 +27286,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>25</v>
@@ -27360,10 +27360,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D335" s="3" t="s">
         <v>85</v>
@@ -27434,7 +27434,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>25</v>
@@ -27508,7 +27508,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>25</v>
@@ -27582,7 +27582,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>25</v>
@@ -27656,7 +27656,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>71</v>
@@ -27730,7 +27730,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>25</v>
@@ -27804,7 +27804,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>25</v>
@@ -27813,7 +27813,7 @@
         <v>55</v>
       </c>
       <c r="E341" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F341" s="3">
         <v>29</v>
@@ -27878,7 +27878,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>25</v>
@@ -27887,7 +27887,7 @@
         <v>32</v>
       </c>
       <c r="E342" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F342" s="3">
         <v>22</v>
@@ -27952,7 +27952,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>63</v>
@@ -28026,7 +28026,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>25</v>
@@ -28100,7 +28100,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>25</v>
@@ -28109,7 +28109,7 @@
         <v>55</v>
       </c>
       <c r="E345" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F345" s="3">
         <v>29</v>
@@ -28174,7 +28174,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>71</v>
@@ -28248,7 +28248,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>58</v>
@@ -28322,7 +28322,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>25</v>
@@ -28331,7 +28331,7 @@
         <v>35</v>
       </c>
       <c r="E348" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F348" s="3">
         <v>29</v>
@@ -28396,7 +28396,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>25</v>
@@ -28470,10 +28470,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D350" s="3" t="s">
         <v>35</v>
@@ -28544,7 +28544,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>25</v>
@@ -28553,7 +28553,7 @@
         <v>26</v>
       </c>
       <c r="E351" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F351" s="3">
         <v>33</v>
@@ -28616,7 +28616,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>58</v>
@@ -28625,7 +28625,7 @@
         <v>53</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F352" s="3">
         <v>30</v>
@@ -28690,7 +28690,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>25</v>
@@ -28764,7 +28764,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>25</v>
@@ -28838,7 +28838,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>66</v>
@@ -28847,7 +28847,7 @@
         <v>53</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F355" s="3">
         <v>26</v>
@@ -28912,7 +28912,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>25</v>
@@ -28986,10 +28986,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C357" s="3" t="s">
         <v>447</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>448</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>32</v>
@@ -29060,10 +29060,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D358" s="3" t="s">
         <v>35</v>
@@ -29134,7 +29134,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>25</v>
@@ -29208,13 +29208,13 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E360" s="3" t="s">
         <v>61</v>
@@ -29282,7 +29282,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>25</v>
@@ -29356,7 +29356,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>25</v>
@@ -29430,7 +29430,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>25</v>
@@ -29504,7 +29504,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>25</v>
@@ -29578,7 +29578,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>25</v>
@@ -29652,10 +29652,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D366" s="3" t="s">
         <v>53</v>
@@ -29726,7 +29726,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>25</v>
@@ -29800,7 +29800,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>25</v>
@@ -29874,10 +29874,10 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D369" s="3" t="s">
         <v>85</v>
@@ -29948,7 +29948,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>25</v>
@@ -30022,7 +30022,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>25</v>
@@ -30096,7 +30096,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>66</v>
@@ -30170,7 +30170,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>63</v>
@@ -30244,7 +30244,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>25</v>
@@ -30318,7 +30318,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>81</v>
@@ -30392,7 +30392,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>25</v>
@@ -30466,13 +30466,13 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E377" s="3" t="s">
         <v>88</v>
@@ -30540,10 +30540,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D378" s="3" t="s">
         <v>53</v>
@@ -30614,7 +30614,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>73</v>
@@ -30688,10 +30688,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D380" s="3" t="s">
         <v>53</v>
@@ -30762,7 +30762,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>112</v>
@@ -30836,7 +30836,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>25</v>
@@ -30845,7 +30845,7 @@
         <v>55</v>
       </c>
       <c r="E382" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F382" s="3">
         <v>18</v>
@@ -30910,7 +30910,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>25</v>
@@ -30984,7 +30984,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>25</v>
@@ -30993,7 +30993,7 @@
         <v>55</v>
       </c>
       <c r="E384" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F384" s="3">
         <v>18</v>
@@ -31058,7 +31058,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>71</v>
@@ -31132,7 +31132,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>25</v>
@@ -31206,7 +31206,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>25</v>
@@ -31280,13 +31280,13 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E388" s="3" t="s">
         <v>88</v>
@@ -31354,16 +31354,16 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D389" s="3" t="s">
         <v>85</v>
       </c>
       <c r="E389" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F389" s="3">
         <v>25</v>
@@ -31428,7 +31428,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>25</v>
@@ -31500,7 +31500,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>25</v>
@@ -31574,7 +31574,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>25</v>
@@ -31648,7 +31648,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>25</v>
@@ -31722,10 +31722,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D394" s="3" t="s">
         <v>26</v>
@@ -31794,7 +31794,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>25</v>
@@ -31868,7 +31868,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>25</v>
@@ -31942,10 +31942,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C397" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="C397" s="3" t="s">
-        <v>489</v>
       </c>
       <c r="D397" s="3" t="s">
         <v>32</v>
@@ -32016,7 +32016,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>25</v>
@@ -32090,7 +32090,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>25</v>
@@ -32164,7 +32164,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>25</v>
@@ -32238,7 +32238,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>25</v>
@@ -32312,7 +32312,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>25</v>
@@ -32386,13 +32386,13 @@
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E403" s="3" t="s">
         <v>96</v>
@@ -32460,7 +32460,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>25</v>
@@ -32534,7 +32534,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>25</v>
@@ -32608,10 +32608,10 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D406" s="3" t="s">
         <v>32</v>
@@ -32682,7 +32682,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>112</v>
@@ -32756,7 +32756,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>108</v>
@@ -32830,10 +32830,10 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C409" s="3" t="s">
         <v>501</v>
-      </c>
-      <c r="C409" s="3" t="s">
-        <v>502</v>
       </c>
       <c r="D409" s="3" t="s">
         <v>55</v>
@@ -32904,7 +32904,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>25</v>
@@ -32978,7 +32978,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>25</v>
@@ -33052,7 +33052,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>58</v>
@@ -33126,7 +33126,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>63</v>
@@ -33200,7 +33200,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>25</v>
@@ -33272,10 +33272,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D415" s="3" t="s">
         <v>53</v>
@@ -33346,7 +33346,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>25</v>
@@ -33420,10 +33420,10 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>85</v>
@@ -33494,7 +33494,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>25</v>
@@ -33568,10 +33568,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>53</v>
@@ -33642,7 +33642,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>25</v>
@@ -33716,7 +33716,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>25</v>
@@ -33790,7 +33790,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>25</v>
@@ -33864,7 +33864,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>25</v>
@@ -33938,13 +33938,13 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E424" s="3" t="s">
         <v>36</v>
@@ -34012,7 +34012,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>25</v>
@@ -34086,7 +34086,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>66</v>
@@ -34158,13 +34158,13 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E427" s="3" t="s">
         <v>64</v>
@@ -34232,7 +34232,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>66</v>
@@ -34306,7 +34306,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>25</v>
@@ -34378,10 +34378,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C430" s="3" t="s">
         <v>521</v>
-      </c>
-      <c r="C430" s="3" t="s">
-        <v>522</v>
       </c>
       <c r="D430" s="3" t="s">
         <v>85</v>
@@ -34452,7 +34452,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>25</v>
@@ -34526,10 +34526,10 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D432" s="3" t="s">
         <v>32</v>
@@ -34600,7 +34600,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>108</v>
@@ -34674,7 +34674,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>25</v>
@@ -34748,7 +34748,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>25</v>
@@ -34822,7 +34822,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>25</v>
@@ -34831,7 +34831,7 @@
         <v>55</v>
       </c>
       <c r="E436" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F436" s="3">
         <v>24</v>
@@ -34896,7 +34896,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>25</v>
@@ -34970,10 +34970,10 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D438" s="3" t="s">
         <v>53</v>
@@ -35044,7 +35044,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>25</v>
@@ -35118,7 +35118,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>25</v>
@@ -35192,7 +35192,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>25</v>
@@ -35266,7 +35266,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>25</v>
@@ -35275,7 +35275,7 @@
         <v>53</v>
       </c>
       <c r="E442" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F442" s="3">
         <v>22</v>
@@ -35340,7 +35340,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>25</v>
@@ -35414,7 +35414,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>25</v>
@@ -35488,7 +35488,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>25</v>
@@ -35562,7 +35562,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>25</v>
@@ -35634,7 +35634,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>71</v>
@@ -35708,7 +35708,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>66</v>
@@ -35780,7 +35780,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>25</v>
@@ -35852,7 +35852,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>25</v>
@@ -35861,7 +35861,7 @@
         <v>26</v>
       </c>
       <c r="E450" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F450" s="3">
         <v>22</v>
@@ -35924,7 +35924,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>25</v>
@@ -35996,7 +35996,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>63</v>
@@ -36070,7 +36070,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>25</v>
@@ -36144,7 +36144,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>25</v>
@@ -36218,7 +36218,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>25</v>
@@ -36292,7 +36292,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>25</v>
@@ -36366,7 +36366,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>25</v>
@@ -36440,7 +36440,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>25</v>
@@ -36586,7 +36586,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>25</v>
@@ -36660,7 +36660,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>25</v>
@@ -36734,7 +36734,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>71</v>
@@ -36808,13 +36808,13 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D463" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E463" s="3" t="s">
         <v>64</v>
@@ -36882,7 +36882,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>25</v>
@@ -36956,7 +36956,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>25</v>
@@ -36965,7 +36965,7 @@
         <v>32</v>
       </c>
       <c r="E465" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F465" s="3">
         <v>21</v>
@@ -37030,10 +37030,10 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D466" s="3" t="s">
         <v>35</v>
@@ -37104,7 +37104,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>25</v>
@@ -37178,7 +37178,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>25</v>
@@ -37187,7 +37187,7 @@
         <v>32</v>
       </c>
       <c r="E468" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F468" s="3">
         <v>24</v>
@@ -37252,7 +37252,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>25</v>
@@ -37326,7 +37326,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>25</v>
@@ -37400,7 +37400,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>112</v>
@@ -37474,7 +37474,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>73</v>
@@ -37548,10 +37548,10 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D473" s="3" t="s">
         <v>53</v>
@@ -37622,7 +37622,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>25</v>
@@ -37696,10 +37696,10 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D475" s="3" t="s">
         <v>55</v>
@@ -37770,7 +37770,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>73</v>
@@ -37844,7 +37844,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>25</v>
@@ -37918,7 +37918,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>25</v>
@@ -37990,7 +37990,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>25</v>
@@ -37999,7 +37999,7 @@
         <v>55</v>
       </c>
       <c r="E479" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F479" s="3">
         <v>21</v>
@@ -38064,10 +38064,10 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D480" s="3" t="s">
         <v>32</v>
@@ -38138,7 +38138,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>25</v>
@@ -38212,7 +38212,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>25</v>
@@ -38286,7 +38286,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>73</v>
@@ -38358,7 +38358,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>25</v>
@@ -38430,7 +38430,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>25</v>
@@ -38502,7 +38502,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>25</v>
@@ -38576,7 +38576,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>25</v>
@@ -38648,7 +38648,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>25</v>
@@ -38722,7 +38722,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>25</v>
@@ -38796,7 +38796,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>25</v>
@@ -38870,7 +38870,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>66</v>
@@ -38944,7 +38944,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>73</v>
@@ -39018,7 +39018,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>25</v>
@@ -39092,16 +39092,16 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C494" s="3" t="s">
         <v>577</v>
-      </c>
-      <c r="C494" s="3" t="s">
-        <v>578</v>
       </c>
       <c r="D494" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E494" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F494" s="3">
         <v>19</v>
@@ -39166,7 +39166,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>25</v>
@@ -39240,7 +39240,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>25</v>
@@ -39314,7 +39314,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>63</v>
@@ -39388,7 +39388,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>25</v>
@@ -39460,7 +39460,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>25</v>
@@ -39534,7 +39534,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>25</v>
@@ -39543,7 +39543,7 @@
         <v>35</v>
       </c>
       <c r="E500" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F500" s="3">
         <v>18</v>
